--- a/data/trans_orig/IQ23_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IQ23_R2-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17CBE94D-E2E9-46D1-BE16-2282F0139D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3A24ACD-6C67-4BD6-AE14-ABD0C6EDC50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9B968AB3-B823-487B-AF0C-593C87E27A54}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AC75A827-7799-4CCE-97DA-2740A5910807}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="415">
   <si>
     <t>Menores en función de si duermen menos/más/igual de las horas recomendadas en función de su edad en 2007 (Tasa respuesta: 99,33%)</t>
   </si>
@@ -110,7 +110,7 @@
     <t>1,57%</t>
   </si>
   <si>
-    <t>8,81%</t>
+    <t>8,73%</t>
   </si>
   <si>
     <t>2,04%</t>
@@ -119,1162 +119,1171 @@
     <t>0,64%</t>
   </si>
   <si>
-    <t>6,08%</t>
+    <t>5,58%</t>
   </si>
   <si>
     <t>2,99%</t>
   </si>
   <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
   </si>
   <si>
     <t>30,52%</t>
   </si>
   <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
   </si>
   <si>
     <t>25,01%</t>
   </si>
   <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
   </si>
   <si>
     <t>27,7%</t>
   </si>
   <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
   </si>
   <si>
     <t>65,5%</t>
   </si>
   <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
   </si>
   <si>
     <t>72,95%</t>
   </si>
   <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
   </si>
   <si>
     <t>69,32%</t>
   </si>
   <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
   </si>
   <si>
     <t>Secundarios</t>
   </si>
   <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores en función de si duermen menos/más/igual de las horas recomendadas en función de su edad en 2012 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
   </si>
   <si>
     <t>2,61%</t>
   </si>
   <si>
-    <t>2,74%</t>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>Menores en función de si duermen menos/más/igual de las horas recomendadas en función de su edad en 2016 (Tasa respuesta: 99,11%)</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
   </si>
   <si>
     <t>1,7%</t>
   </si>
   <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores en función de si duermen menos/más/igual de las horas recomendadas en función de su edad en 2012 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>2,92%</t>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>Menores en función de si duermen menos/más/igual de las horas recomendadas en función de su edad en 2023 (Tasa respuesta: 99,43%)</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
   </si>
   <si>
     <t>0,76%</t>
   </si>
   <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
   </si>
   <si>
     <t>68,13%</t>
   </si>
   <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>Menores en función de si duermen menos/más/igual de las horas recomendadas en función de su edad en 2015 (Tasa respuesta: 99,11%)</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>Menores en función de si duermen menos/más/igual de las horas recomendadas en función de su edad en 2023 (Tasa respuesta: 99,43%)</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
+    <t>72,42%</t>
   </si>
 </sst>
 </file>
@@ -1686,7 +1695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C952FD0-6816-4C8C-83B3-89792CF7DEF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A478022A-9C91-4F2C-910B-B76EE850C44F}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2214,13 +2223,13 @@
         <v>6677</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H12" s="7">
         <v>18</v>
@@ -2229,13 +2238,13 @@
         <v>11306</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M12" s="7">
         <v>28</v>
@@ -2244,13 +2253,13 @@
         <v>17983</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2265,13 +2274,13 @@
         <v>107850</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H13" s="7">
         <v>155</v>
@@ -2280,13 +2289,13 @@
         <v>100777</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M13" s="7">
         <v>318</v>
@@ -2295,13 +2304,13 @@
         <v>208627</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2316,13 +2325,13 @@
         <v>361778</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H14" s="7">
         <v>451</v>
@@ -2331,13 +2340,13 @@
         <v>301024</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M14" s="7">
         <v>996</v>
@@ -2346,13 +2355,13 @@
         <v>662802</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2408,7 +2417,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2420,13 +2429,13 @@
         <v>3872</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -2435,13 +2444,13 @@
         <v>1087</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -2450,13 +2459,13 @@
         <v>4959</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2644,10 +2653,10 @@
         <v>104</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M20" s="7">
         <v>44</v>
@@ -2656,13 +2665,13 @@
         <v>28176</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2677,13 +2686,13 @@
         <v>173158</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H21" s="7">
         <v>249</v>
@@ -2692,13 +2701,13 @@
         <v>163746</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M21" s="7">
         <v>511</v>
@@ -2707,13 +2716,13 @@
         <v>336904</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2840,7 +2849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4B584C-3234-41F3-B8B7-457DBE45349D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388BA1E8-C8A4-4290-9257-8C84168F40DE}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3192,7 +3201,7 @@
         <v>2699</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>131</v>
@@ -3276,7 +3285,7 @@
         <v>91</v>
       </c>
       <c r="I10" s="7">
-        <v>63825</v>
+        <v>63826</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>145</v>
@@ -3327,7 +3336,7 @@
         <v>134</v>
       </c>
       <c r="I11" s="7">
-        <v>92368</v>
+        <v>92369</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>18</v>
@@ -3371,10 +3380,10 @@
         <v>151</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>51</v>
+        <v>152</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>152</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
         <v>13</v>
@@ -3562,7 +3571,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3610,7 +3619,7 @@
         <v>183</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>54</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,13 +3634,13 @@
         <v>47235</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H17" s="7">
         <v>53</v>
@@ -3640,13 +3649,13 @@
         <v>37188</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M17" s="7">
         <v>120</v>
@@ -3655,10 +3664,10 @@
         <v>84423</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>192</v>
@@ -3780,13 +3789,13 @@
         <v>21660</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>57</v>
+        <v>202</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H20" s="7">
         <v>25</v>
@@ -3795,13 +3804,13 @@
         <v>17456</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M20" s="7">
         <v>56</v>
@@ -3810,13 +3819,13 @@
         <v>39116</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,13 +3840,13 @@
         <v>192556</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H21" s="7">
         <v>267</v>
@@ -3846,13 +3855,13 @@
         <v>181522</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M21" s="7">
         <v>542</v>
@@ -3861,10 +3870,10 @@
         <v>374078</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>217</v>
+        <v>134</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>218</v>
@@ -3994,7 +4003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A5F541B-5E14-418A-8FCF-C6351AEDBBA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0244458-F1B9-4018-8948-C743E49CF512}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4438,7 +4447,7 @@
         <v>250</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4527,7 +4536,7 @@
         <v>255</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>256</v>
+        <v>105</v>
       </c>
       <c r="M12" s="7">
         <v>26</v>
@@ -4536,13 +4545,13 @@
         <v>16684</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4557,13 +4566,13 @@
         <v>150127</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H13" s="7">
         <v>198</v>
@@ -4572,10 +4581,10 @@
         <v>128326</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>264</v>
@@ -4629,7 +4638,7 @@
         <v>272</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>273</v>
+        <v>196</v>
       </c>
       <c r="M14" s="7">
         <v>957</v>
@@ -4638,13 +4647,13 @@
         <v>658880</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4700,7 +4709,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4712,7 +4721,7 @@
         <v>3168</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>53</v>
+        <v>275</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>276</v>
@@ -4730,10 +4739,10 @@
         <v>278</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>25</v>
+        <v>279</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -4742,13 +4751,13 @@
         <v>6165</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4763,13 +4772,13 @@
         <v>58309</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H17" s="7">
         <v>93</v>
@@ -4778,13 +4787,13 @@
         <v>61440</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M17" s="7">
         <v>177</v>
@@ -4793,13 +4802,13 @@
         <v>119748</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4814,13 +4823,13 @@
         <v>124842</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H18" s="7">
         <v>155</v>
@@ -4829,13 +4838,13 @@
         <v>105495</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M18" s="7">
         <v>335</v>
@@ -4844,13 +4853,13 @@
         <v>230337</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4918,13 +4927,13 @@
         <v>11373</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="H20" s="7">
         <v>20</v>
@@ -4933,13 +4942,13 @@
         <v>12145</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M20" s="7">
         <v>38</v>
@@ -4948,13 +4957,13 @@
         <v>23518</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>306</v>
+        <v>180</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>258</v>
+        <v>307</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4969,13 +4978,13 @@
         <v>232593</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H21" s="7">
         <v>316</v>
@@ -4984,10 +4993,10 @@
         <v>206513</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>312</v>
+        <v>110</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>313</v>
@@ -5002,10 +5011,10 @@
         <v>314</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>189</v>
+        <v>315</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5020,13 +5029,13 @@
         <v>494276</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H22" s="7">
         <v>716</v>
@@ -5035,13 +5044,13 @@
         <v>480594</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M22" s="7">
         <v>1418</v>
@@ -5050,13 +5059,13 @@
         <v>974870</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5132,7 +5141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC886CA-F4A1-478C-A94B-29437346C69C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B7C283-8EFB-4B29-B1F9-9310BDDC9381}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5149,7 +5158,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5454,13 +5463,13 @@
         <v>430</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5475,7 +5484,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -5490,7 +5499,7 @@
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>329</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5562,7 +5571,7 @@
         <v>340</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>341</v>
+        <v>221</v>
       </c>
       <c r="H10" s="7">
         <v>42</v>
@@ -5571,13 +5580,13 @@
         <v>32218</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="M10" s="7">
         <v>95</v>
@@ -5586,13 +5595,13 @@
         <v>69518</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5660,7 +5669,7 @@
         <v>5313</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>304</v>
+        <v>347</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>348</v>
@@ -5678,10 +5687,10 @@
         <v>350</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M12" s="7">
         <v>15</v>
@@ -5690,7 +5699,7 @@
         <v>12966</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>352</v>
@@ -5726,13 +5735,13 @@
         <v>123600</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>261</v>
+        <v>357</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M13" s="7">
         <v>424</v>
@@ -5741,13 +5750,13 @@
         <v>271068</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5762,13 +5771,13 @@
         <v>337792</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H14" s="7">
         <v>426</v>
@@ -5777,13 +5786,13 @@
         <v>315569</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>150</v>
+        <v>368</v>
       </c>
       <c r="M14" s="7">
         <v>854</v>
@@ -5792,13 +5801,13 @@
         <v>653361</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5854,7 +5863,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5866,13 +5875,13 @@
         <v>1756</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>154</v>
+        <v>372</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -5881,13 +5890,13 @@
         <v>1294</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>371</v>
+        <v>282</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -5896,13 +5905,13 @@
         <v>3050</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>302</v>
+        <v>375</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>374</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5917,13 +5926,13 @@
         <v>40932</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>265</v>
+        <v>379</v>
       </c>
       <c r="H17" s="7">
         <v>64</v>
@@ -5932,13 +5941,13 @@
         <v>38325</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="M17" s="7">
         <v>129</v>
@@ -5947,13 +5956,13 @@
         <v>79258</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>90</v>
+        <v>384</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5968,13 +5977,13 @@
         <v>131894</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>382</v>
+        <v>169</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>383</v>
+        <v>319</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="H18" s="7">
         <v>162</v>
@@ -5983,13 +5992,13 @@
         <v>109891</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>197</v>
+        <v>388</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M18" s="7">
         <v>333</v>
@@ -5998,13 +6007,13 @@
         <v>241785</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6072,13 +6081,13 @@
         <v>7499</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>390</v>
+        <v>154</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>392</v>
+        <v>80</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -6087,13 +6096,13 @@
         <v>8947</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M20" s="7">
         <v>20</v>
@@ -6102,13 +6111,13 @@
         <v>16446</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>352</v>
+        <v>397</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>254</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6123,13 +6132,13 @@
         <v>209428</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="H21" s="7">
         <v>292</v>
@@ -6138,13 +6147,13 @@
         <v>180713</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="M21" s="7">
         <v>607</v>
@@ -6153,13 +6162,13 @@
         <v>390141</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>162</v>
+        <v>406</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>403</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6174,13 +6183,13 @@
         <v>506986</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="H22" s="7">
         <v>630</v>
@@ -6189,13 +6198,13 @@
         <v>457678</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>270</v>
+        <v>410</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="M22" s="7">
         <v>1282</v>
@@ -6204,13 +6213,13 @@
         <v>964664</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
